--- a/tests/Gauges/tPivot5_Static.xlsx
+++ b/tests/Gauges/tPivot5_Static.xlsx
@@ -13,7 +13,7 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="Orders">Лист1!$A$4:$H$209</x:definedName>
-    <x:definedName name="Orders_tpl">Лист1!$A$4:$H$5</x:definedName>
+    <x:definedName name="Orders_tpl">Лист1!$A$4:$H$209</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
   <x:pivotCaches>
@@ -24,63 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+  <x:si>
+    <x:t>Static Pivot Table</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Payment method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OrderNo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ship date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Items total</x:t>
+  </x:si>
   <x:si>
     <x:t>Tax rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Значения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{{item.TaxRate}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Итог Сумма по полю Amount paid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Итог Сумма Items total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Payment method</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OrderNo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сумма по полю Amount paid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сумма Items total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{{item.Company}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{{item.PaymentMethod}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{{item.OrderNo}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{{item.PaymentMethod}} Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{{item.Company}} Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Общий итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Static Pivot Table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ship date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Items total</x:t>
   </x:si>
   <x:si>
     <x:t>Amount paid</x:t>
@@ -891,7 +855,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </x:numFmts>
-  <x:fonts count="10">
+  <x:fonts count="8">
     <x:font>
       <x:sz val="8"/>
       <x:color theme="1"/>
@@ -945,21 +909,6 @@
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="8"/>
-      <x:color theme="1"/>
-      <x:name val="Arial"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:i/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="8"/>
-      <x:color theme="1"/>
-      <x:name val="Arial"/>
-      <x:family val="2"/>
-    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -999,13 +948,10 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="14">
+  <x:cellStyleXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1027,17 +973,8 @@
     <x:xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="9" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="8" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="31">
+  <x:cellXfs count="23">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1089,43 +1026,11 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1135,22 +1040,11 @@
     <x:cellStyle name="Обычный 2" xfId="2"/>
     <x:cellStyle name="Обычный 3" xfId="1"/>
   </x:cellStyles>
-  <x:dxfs count="4">
+  <x:dxfs count="1">
     <x:dxf>
       <x:font>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
         <x:color indexed="48"/>
       </x:font>
-    </x:dxf>
-    <x:dxf>
-      <x:alignment wrapText="1" readingOrder="0"/>
-    </x:dxf>
-    <x:dxf>
-      <x:alignment wrapText="1" readingOrder="0"/>
-    </x:dxf>
-    <x:dxf>
-      <x:alignment wrapText="1" readingOrder="0"/>
     </x:dxf>
   </x:dxfs>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1162,11 +1056,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1695450" cy="609600"/>
+    <xdr:ext cx="1691640" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Рисунок 2"/>
@@ -1183,7 +1077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1695450" cy="609600"/>
+          <a:ext cx="1691640" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -1196,7 +1090,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1">
   <x:cacheSource type="worksheet">
-    <x:worksheetSource name="Лист1!B3:H208"/>
+    <x:worksheetSource ref="B3:H208" sheet="Лист1"/>
   </x:cacheSource>
   <x:cacheFields>
     <x:cacheField name="Company">
@@ -1478,7 +1372,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Ship date">
-      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1988-01-21T00:00:00" maxDate="1995-02-05T00:00:00" count="191"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1988-01-21T00:00:00" maxDate="1995-02-05T00:00:00" count="191"/>
     </x:cacheField>
     <x:cacheField name="Items total">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="54" maxValue="158922.65" count="205"/>
@@ -2959,155 +2853,23 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="10.5"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="21" customWidth="1"/>
-    <x:col min="2" max="2" width="31.332031" style="21" customWidth="1"/>
-    <x:col min="3" max="3" width="34.664062" style="21" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="15.5" style="21" customWidth="1"/>
-    <x:col min="5" max="6" width="29.164062" style="21" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="19.332031" style="21" customWidth="1"/>
-    <x:col min="8" max="8" width="12.5" style="21" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="31.332031" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="34.664062" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="15.5" style="0" customWidth="1"/>
+    <x:col min="5" max="6" width="29.164062" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="19.332031" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="12.5" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
-      <x:c r="A1" s="21" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="B3" s="22" t="s"/>
-      <x:c r="C3" s="22" t="s"/>
-      <x:c r="D3" s="22" t="s"/>
-      <x:c r="E3" s="22" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F3" s="22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G3" s="24" t="s"/>
-      <x:c r="H3" s="24" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="B4" s="22" t="s"/>
-      <x:c r="C4" s="22" t="s"/>
-      <x:c r="D4" s="22" t="s"/>
-      <x:c r="E4" s="23" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F4" s="22" t="s"/>
-      <x:c r="G4" s="23" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H4" s="23" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="B5" s="22" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="22" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="22" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E5" s="23" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5" s="23" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G5" s="24" t="s"/>
-      <x:c r="H5" s="24" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:8">
-      <x:c r="B6" s="23" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C6" s="23" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D6" s="23" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E6" s="21" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F6" s="21" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G6" s="21" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H6" s="25" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8">
-      <x:c r="B7" s="22" t="s"/>
-      <x:c r="C7" s="23" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D7" s="22" t="s"/>
-      <x:c r="E7" s="21" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F7" s="21" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G7" s="21" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H7" s="25" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:8">
-      <x:c r="B8" s="23" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C8" s="22" t="s"/>
-      <x:c r="D8" s="22" t="s"/>
-      <x:c r="E8" s="21" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F8" s="21" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G8" s="21" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H8" s="25" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8">
-      <x:c r="B9" s="23" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C9" s="22" t="s"/>
-      <x:c r="D9" s="22" t="s"/>
-      <x:c r="E9" s="21" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F9" s="21" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G9" s="21" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H9" s="25" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="3" spans="1:8"/>
+    <x:row r="4" spans="1:8"/>
+    <x:row r="5" spans="1:8"/>
+    <x:row r="6" spans="1:8"/>
+    <x:row r="7" spans="1:8"/>
+    <x:row r="8" spans="1:8"/>
+    <x:row r="9" spans="1:8"/>
   </x:sheetData>
-  <x:mergeCells count="7">
-    <x:mergeCell ref="H4:H5"/>
-    <x:mergeCell ref="B6:B7"/>
-    <x:mergeCell ref="B8:D8"/>
-    <x:mergeCell ref="B9:D9"/>
-    <x:mergeCell ref="C7:D7"/>
-    <x:mergeCell ref="E4:F4"/>
-    <x:mergeCell ref="G4:G5"/>
-  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId2"/>
@@ -3129,56 +2891,53 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="10.5"/>
   <x:cols>
-    <x:col min="1" max="1" width="5" style="21" customWidth="1"/>
-    <x:col min="2" max="8" width="10.832031" style="21" customWidth="1"/>
+    <x:col min="1" max="1" width="5" style="0" customWidth="1"/>
+    <x:col min="2" max="8" width="10.832031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8" customFormat="1" ht="48" customHeight="1">
-      <x:c r="B1" s="26" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C1" s="27" t="s"/>
-      <x:c r="D1" s="27" t="s"/>
-      <x:c r="E1" s="27" t="s"/>
-      <x:c r="F1" s="27" t="s"/>
-      <x:c r="G1" s="27" t="s"/>
-      <x:c r="H1" s="27" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="21" t="s"/>
+      <x:c r="B1" s="21" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="22" t="s"/>
+      <x:c r="D1" s="22" t="s"/>
+      <x:c r="E1" s="22" t="s"/>
+      <x:c r="F1" s="22" t="s"/>
+      <x:c r="G1" s="22" t="s"/>
+      <x:c r="H1" s="22" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8" customFormat="1" ht="30.75" customHeight="1">
       <x:c r="B3" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C3" s="1" t="s">
+      <x:c r="G3" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
+      <x:c r="H3" s="2" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="19.5" customHeight="1">
       <x:c r="B4" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E4" s="4">
         <x:v>32266</x:v>
@@ -3195,13 +2954,13 @@
     </x:row>
     <x:row r="5" spans="1:8" customFormat="1" ht="11.25" customHeight="1">
       <x:c r="B5" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="4">
         <x:v>32251</x:v>
@@ -3218,13 +2977,13 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="B6" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E6" s="4">
         <x:v>32163</x:v>
@@ -3241,13 +3000,13 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="B7" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>32454</x:v>
@@ -3264,13 +3023,13 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="B8" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>32265</x:v>
@@ -3287,13 +3046,13 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="B9" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>32267</x:v>
@@ -3310,13 +3069,13 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="B10" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>32275</x:v>
@@ -3333,13 +3092,13 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="B11" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>32275</x:v>
@@ -3356,13 +3115,13 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="B12" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E12" s="4">
         <x:v>32282</x:v>
@@ -3379,13 +3138,13 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="B13" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E13" s="4">
         <x:v>32283</x:v>
@@ -3402,13 +3161,13 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="B14" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E14" s="4">
         <x:v>32289</x:v>
@@ -3425,13 +3184,13 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="B15" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E15" s="4">
         <x:v>32289</x:v>
@@ -3448,13 +3207,13 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="B16" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E16" s="4">
         <x:v>32289</x:v>
@@ -3471,13 +3230,13 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="B17" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E17" s="4">
         <x:v>32297</x:v>
@@ -3494,13 +3253,13 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="B18" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E18" s="4">
         <x:v>32307</x:v>
@@ -3517,13 +3276,13 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="B19" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D19" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E19" s="4">
         <x:v>32313</x:v>
@@ -3540,13 +3299,13 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="B20" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E20" s="4">
         <x:v>32319</x:v>
@@ -3563,13 +3322,13 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="B21" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D21" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E21" s="4">
         <x:v>32319</x:v>
@@ -3586,13 +3345,13 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="B22" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D22" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E22" s="4">
         <x:v>32319</x:v>
@@ -3609,13 +3368,13 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="B23" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D23" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E23" s="4">
         <x:v>32325</x:v>
@@ -3632,13 +3391,13 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="B24" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D24" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E24" s="4">
         <x:v>32326</x:v>
@@ -3655,13 +3414,13 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="B25" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D25" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E25" s="4">
         <x:v>32327</x:v>
@@ -3678,13 +3437,13 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="B26" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D26" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E26" s="4">
         <x:v>32328</x:v>
@@ -3701,13 +3460,13 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="B27" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D27" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E27" s="4">
         <x:v>32332</x:v>
@@ -3724,13 +3483,13 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="B28" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D28" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E28" s="4">
         <x:v>32332</x:v>
@@ -3747,13 +3506,13 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="B29" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D29" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E29" s="4">
         <x:v>32332</x:v>
@@ -3770,13 +3529,13 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="B30" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D30" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E30" s="4">
         <x:v>32343</x:v>
@@ -3793,13 +3552,13 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="B31" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D31" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E31" s="4">
         <x:v>32350</x:v>
@@ -3816,13 +3575,13 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="B32" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D32" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E32" s="4">
         <x:v>32356</x:v>
@@ -3839,13 +3598,13 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="B33" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D33" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E33" s="4">
         <x:v>32356</x:v>
@@ -3862,13 +3621,13 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="B34" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D34" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E34" s="4">
         <x:v>32357</x:v>
@@ -3885,13 +3644,13 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="B35" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C35" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D35" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E35" s="4">
         <x:v>32369</x:v>
@@ -3908,13 +3667,13 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="B36" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C36" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D36" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E36" s="4">
         <x:v>32372</x:v>
@@ -3931,13 +3690,13 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="B37" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C37" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D37" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E37" s="4">
         <x:v>32381</x:v>
@@ -3954,13 +3713,13 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="B38" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C38" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D38" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E38" s="4">
         <x:v>32382</x:v>
@@ -3977,13 +3736,13 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="B39" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C39" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D39" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E39" s="4">
         <x:v>32382</x:v>
@@ -4000,13 +3759,13 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="B40" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C40" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D40" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E40" s="4">
         <x:v>32387</x:v>
@@ -4023,13 +3782,13 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="B41" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C41" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D41" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E41" s="4">
         <x:v>32391</x:v>
@@ -4046,13 +3805,13 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="B42" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C42" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D42" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E42" s="4">
         <x:v>32403</x:v>
@@ -4069,13 +3828,13 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="B43" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C43" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D43" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E43" s="4">
         <x:v>32411</x:v>
@@ -4092,13 +3851,13 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="B44" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C44" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D44" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E44" s="4">
         <x:v>32417</x:v>
@@ -4115,13 +3874,13 @@
     </x:row>
     <x:row r="45" spans="1:8">
       <x:c r="B45" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C45" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D45" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E45" s="4">
         <x:v>32425</x:v>
@@ -4138,13 +3897,13 @@
     </x:row>
     <x:row r="46" spans="1:8">
       <x:c r="B46" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C46" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D46" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E46" s="4">
         <x:v>32433</x:v>
@@ -4161,13 +3920,13 @@
     </x:row>
     <x:row r="47" spans="1:8">
       <x:c r="B47" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C47" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D47" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E47" s="4">
         <x:v>32460</x:v>
@@ -4184,13 +3943,13 @@
     </x:row>
     <x:row r="48" spans="1:8">
       <x:c r="B48" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C48" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D48" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E48" s="4">
         <x:v>32475</x:v>
@@ -4207,13 +3966,13 @@
     </x:row>
     <x:row r="49" spans="1:8">
       <x:c r="B49" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C49" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D49" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E49" s="4">
         <x:v>32480</x:v>
@@ -4230,13 +3989,13 @@
     </x:row>
     <x:row r="50" spans="1:8">
       <x:c r="B50" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C50" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D50" s="3" t="s">
-        <x:v>104</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E50" s="4">
         <x:v>32491</x:v>
@@ -4253,13 +4012,13 @@
     </x:row>
     <x:row r="51" spans="1:8">
       <x:c r="B51" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C51" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D51" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E51" s="4">
         <x:v>32502</x:v>
@@ -4276,13 +4035,13 @@
     </x:row>
     <x:row r="52" spans="1:8">
       <x:c r="B52" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C52" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D52" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E52" s="4">
         <x:v>32513</x:v>
@@ -4299,13 +4058,13 @@
     </x:row>
     <x:row r="53" spans="1:8">
       <x:c r="B53" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C53" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D53" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E53" s="4">
         <x:v>32515</x:v>
@@ -4322,13 +4081,13 @@
     </x:row>
     <x:row r="54" spans="1:8">
       <x:c r="B54" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C54" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D54" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E54" s="4">
         <x:v>32524</x:v>
@@ -4345,13 +4104,13 @@
     </x:row>
     <x:row r="55" spans="1:8">
       <x:c r="B55" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C55" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D55" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E55" s="4">
         <x:v>32540</x:v>
@@ -4368,13 +4127,13 @@
     </x:row>
     <x:row r="56" spans="1:8">
       <x:c r="B56" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C56" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D56" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E56" s="4">
         <x:v>32544</x:v>
@@ -4391,13 +4150,13 @@
     </x:row>
     <x:row r="57" spans="1:8">
       <x:c r="B57" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C57" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D57" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E57" s="4">
         <x:v>32548</x:v>
@@ -4414,13 +4173,13 @@
     </x:row>
     <x:row r="58" spans="1:8">
       <x:c r="B58" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C58" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D58" s="3" t="s">
-        <x:v>115</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E58" s="4">
         <x:v>32558</x:v>
@@ -4437,13 +4196,13 @@
     </x:row>
     <x:row r="59" spans="1:8">
       <x:c r="B59" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C59" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D59" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E59" s="4">
         <x:v>32561</x:v>
@@ -4460,13 +4219,13 @@
     </x:row>
     <x:row r="60" spans="1:8">
       <x:c r="B60" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C60" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D60" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E60" s="4">
         <x:v>32564</x:v>
@@ -4483,13 +4242,13 @@
     </x:row>
     <x:row r="61" spans="1:8">
       <x:c r="B61" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C61" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D61" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E61" s="4">
         <x:v>32568</x:v>
@@ -4506,13 +4265,13 @@
     </x:row>
     <x:row r="62" spans="1:8">
       <x:c r="B62" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C62" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D62" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E62" s="4">
         <x:v>32571</x:v>
@@ -4529,13 +4288,13 @@
     </x:row>
     <x:row r="63" spans="1:8">
       <x:c r="B63" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C63" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D63" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E63" s="4">
         <x:v>32576</x:v>
@@ -4552,13 +4311,13 @@
     </x:row>
     <x:row r="64" spans="1:8">
       <x:c r="B64" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C64" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D64" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E64" s="4">
         <x:v>32581</x:v>
@@ -4575,13 +4334,13 @@
     </x:row>
     <x:row r="65" spans="1:8">
       <x:c r="B65" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C65" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D65" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E65" s="4">
         <x:v>32592</x:v>
@@ -4598,13 +4357,13 @@
     </x:row>
     <x:row r="66" spans="1:8">
       <x:c r="B66" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C66" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D66" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E66" s="4">
         <x:v>32593</x:v>
@@ -4621,13 +4380,13 @@
     </x:row>
     <x:row r="67" spans="1:8">
       <x:c r="B67" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C67" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D67" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E67" s="4">
         <x:v>32594</x:v>
@@ -4644,13 +4403,13 @@
     </x:row>
     <x:row r="68" spans="1:8">
       <x:c r="B68" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C68" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D68" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E68" s="4">
         <x:v>32600</x:v>
@@ -4667,13 +4426,13 @@
     </x:row>
     <x:row r="69" spans="1:8">
       <x:c r="B69" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C69" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D69" s="3" t="s">
-        <x:v>131</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E69" s="4">
         <x:v>32602</x:v>
@@ -4690,13 +4449,13 @@
     </x:row>
     <x:row r="70" spans="1:8">
       <x:c r="B70" s="3" t="s">
-        <x:v>132</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C70" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D70" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E70" s="4">
         <x:v>32604</x:v>
@@ -4713,13 +4472,13 @@
     </x:row>
     <x:row r="71" spans="1:8">
       <x:c r="B71" s="3" t="s">
-        <x:v>134</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C71" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D71" s="3" t="s">
-        <x:v>135</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E71" s="4">
         <x:v>32606</x:v>
@@ -4736,13 +4495,13 @@
     </x:row>
     <x:row r="72" spans="1:8">
       <x:c r="B72" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C72" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D72" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E72" s="4">
         <x:v>32608</x:v>
@@ -4759,13 +4518,13 @@
     </x:row>
     <x:row r="73" spans="1:8">
       <x:c r="B73" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C73" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D73" s="3" t="s">
-        <x:v>137</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E73" s="4">
         <x:v>32610</x:v>
@@ -4782,13 +4541,13 @@
     </x:row>
     <x:row r="74" spans="1:8">
       <x:c r="B74" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C74" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D74" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E74" s="4">
         <x:v>32614</x:v>
@@ -4805,13 +4564,13 @@
     </x:row>
     <x:row r="75" spans="1:8">
       <x:c r="B75" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C75" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D75" s="3" t="s">
-        <x:v>139</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E75" s="4">
         <x:v>32618</x:v>
@@ -4828,13 +4587,13 @@
     </x:row>
     <x:row r="76" spans="1:8">
       <x:c r="B76" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C76" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D76" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E76" s="4">
         <x:v>32620</x:v>
@@ -4851,13 +4610,13 @@
     </x:row>
     <x:row r="77" spans="1:8">
       <x:c r="B77" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C77" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D77" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E77" s="4">
         <x:v>32624</x:v>
@@ -4874,13 +4633,13 @@
     </x:row>
     <x:row r="78" spans="1:8">
       <x:c r="B78" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C78" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D78" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E78" s="4">
         <x:v>32629</x:v>
@@ -4897,13 +4656,13 @@
     </x:row>
     <x:row r="79" spans="1:8">
       <x:c r="B79" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C79" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D79" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E79" s="4">
         <x:v>32630</x:v>
@@ -4920,13 +4679,13 @@
     </x:row>
     <x:row r="80" spans="1:8">
       <x:c r="B80" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C80" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D80" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E80" s="4">
         <x:v>32632</x:v>
@@ -4943,13 +4702,13 @@
     </x:row>
     <x:row r="81" spans="1:8">
       <x:c r="B81" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C81" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D81" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E81" s="4">
         <x:v>32634</x:v>
@@ -4966,13 +4725,13 @@
     </x:row>
     <x:row r="82" spans="1:8">
       <x:c r="B82" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C82" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D82" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E82" s="4">
         <x:v>32636</x:v>
@@ -4989,13 +4748,13 @@
     </x:row>
     <x:row r="83" spans="1:8">
       <x:c r="B83" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C83" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D83" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E83" s="4">
         <x:v>32638</x:v>
@@ -5012,13 +4771,13 @@
     </x:row>
     <x:row r="84" spans="1:8">
       <x:c r="B84" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C84" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D84" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E84" s="4">
         <x:v>32638</x:v>
@@ -5035,13 +4794,13 @@
     </x:row>
     <x:row r="85" spans="1:8">
       <x:c r="B85" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C85" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D85" s="3" t="s">
-        <x:v>150</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E85" s="4">
         <x:v>32640</x:v>
@@ -5058,13 +4817,13 @@
     </x:row>
     <x:row r="86" spans="1:8">
       <x:c r="B86" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C86" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D86" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E86" s="4">
         <x:v>32647</x:v>
@@ -5081,13 +4840,13 @@
     </x:row>
     <x:row r="87" spans="1:8">
       <x:c r="B87" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C87" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D87" s="3" t="s">
-        <x:v>152</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E87" s="4">
         <x:v>32649</x:v>
@@ -5104,13 +4863,13 @@
     </x:row>
     <x:row r="88" spans="1:8">
       <x:c r="B88" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C88" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D88" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E88" s="4">
         <x:v>32651</x:v>
@@ -5127,13 +4886,13 @@
     </x:row>
     <x:row r="89" spans="1:8">
       <x:c r="B89" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C89" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D89" s="3" t="s">
-        <x:v>154</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E89" s="4">
         <x:v>32654</x:v>
@@ -5150,13 +4909,13 @@
     </x:row>
     <x:row r="90" spans="1:8">
       <x:c r="B90" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C90" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D90" s="3" t="s">
-        <x:v>155</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E90" s="4">
         <x:v>32660</x:v>
@@ -5173,13 +4932,13 @@
     </x:row>
     <x:row r="91" spans="1:8">
       <x:c r="B91" s="3" t="s">
-        <x:v>156</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C91" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D91" s="3" t="s">
-        <x:v>157</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E91" s="4">
         <x:v>32660</x:v>
@@ -5196,13 +4955,13 @@
     </x:row>
     <x:row r="92" spans="1:8">
       <x:c r="B92" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C92" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D92" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E92" s="4">
         <x:v>32661</x:v>
@@ -5219,13 +4978,13 @@
     </x:row>
     <x:row r="93" spans="1:8">
       <x:c r="B93" s="3" t="s">
-        <x:v>159</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C93" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D93" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E93" s="4">
         <x:v>32663</x:v>
@@ -5242,13 +5001,13 @@
     </x:row>
     <x:row r="94" spans="1:8">
       <x:c r="B94" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C94" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D94" s="3" t="s">
-        <x:v>161</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E94" s="4">
         <x:v>32665</x:v>
@@ -5265,13 +5024,13 @@
     </x:row>
     <x:row r="95" spans="1:8">
       <x:c r="B95" s="3" t="s">
-        <x:v>162</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C95" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D95" s="3" t="s">
-        <x:v>163</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E95" s="4">
         <x:v>32668</x:v>
@@ -5288,13 +5047,13 @@
     </x:row>
     <x:row r="96" spans="1:8">
       <x:c r="B96" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C96" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D96" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E96" s="4">
         <x:v>32671</x:v>
@@ -5311,13 +5070,13 @@
     </x:row>
     <x:row r="97" spans="1:8">
       <x:c r="B97" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C97" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D97" s="3" t="s">
-        <x:v>165</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E97" s="4">
         <x:v>32673</x:v>
@@ -5334,13 +5093,13 @@
     </x:row>
     <x:row r="98" spans="1:8">
       <x:c r="B98" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C98" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D98" s="3" t="s">
-        <x:v>166</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E98" s="4">
         <x:v>32675</x:v>
@@ -5357,13 +5116,13 @@
     </x:row>
     <x:row r="99" spans="1:8">
       <x:c r="B99" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C99" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D99" s="3" t="s">
-        <x:v>167</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E99" s="4">
         <x:v>32679</x:v>
@@ -5380,13 +5139,13 @@
     </x:row>
     <x:row r="100" spans="1:8">
       <x:c r="B100" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C100" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D100" s="3" t="s">
-        <x:v>168</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E100" s="4">
         <x:v>32693</x:v>
@@ -5403,13 +5162,13 @@
     </x:row>
     <x:row r="101" spans="1:8">
       <x:c r="B101" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C101" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D101" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E101" s="4">
         <x:v>33761</x:v>
@@ -5426,13 +5185,13 @@
     </x:row>
     <x:row r="102" spans="1:8">
       <x:c r="B102" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C102" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D102" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E102" s="4">
         <x:v>33798</x:v>
@@ -5449,13 +5208,13 @@
     </x:row>
     <x:row r="103" spans="1:8">
       <x:c r="B103" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C103" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D103" s="3" t="s">
-        <x:v>172</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E103" s="4">
         <x:v>33803</x:v>
@@ -5472,13 +5231,13 @@
     </x:row>
     <x:row r="104" spans="1:8">
       <x:c r="B104" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C104" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D104" s="3" t="s">
-        <x:v>173</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E104" s="4">
         <x:v>33806</x:v>
@@ -5495,13 +5254,13 @@
     </x:row>
     <x:row r="105" spans="1:8">
       <x:c r="B105" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C105" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D105" s="3" t="s">
-        <x:v>174</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E105" s="4">
         <x:v>33870</x:v>
@@ -5518,13 +5277,13 @@
     </x:row>
     <x:row r="106" spans="1:8">
       <x:c r="B106" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C106" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D106" s="3" t="s">
-        <x:v>175</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E106" s="4">
         <x:v>33901</x:v>
@@ -5541,13 +5300,13 @@
     </x:row>
     <x:row r="107" spans="1:8">
       <x:c r="B107" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C107" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D107" s="3" t="s">
-        <x:v>176</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E107" s="4">
         <x:v>33921</x:v>
@@ -5564,13 +5323,13 @@
     </x:row>
     <x:row r="108" spans="1:8">
       <x:c r="B108" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C108" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D108" s="3" t="s">
-        <x:v>177</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E108" s="4">
         <x:v>33952</x:v>
@@ -5587,13 +5346,13 @@
     </x:row>
     <x:row r="109" spans="1:8">
       <x:c r="B109" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C109" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D109" s="3" t="s">
-        <x:v>178</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E109" s="4">
         <x:v>33971</x:v>
@@ -5610,13 +5369,13 @@
     </x:row>
     <x:row r="110" spans="1:8">
       <x:c r="B110" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C110" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D110" s="3" t="s">
-        <x:v>179</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E110" s="4">
         <x:v>34012</x:v>
@@ -5633,13 +5392,13 @@
     </x:row>
     <x:row r="111" spans="1:8">
       <x:c r="B111" s="3" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C111" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D111" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E111" s="4">
         <x:v>34041</x:v>
@@ -5656,13 +5415,13 @@
     </x:row>
     <x:row r="112" spans="1:8">
       <x:c r="B112" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C112" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D112" s="3" t="s">
-        <x:v>182</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E112" s="4">
         <x:v>34049</x:v>
@@ -5679,13 +5438,13 @@
     </x:row>
     <x:row r="113" spans="1:8">
       <x:c r="B113" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C113" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D113" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E113" s="4">
         <x:v>34072</x:v>
@@ -5702,13 +5461,13 @@
     </x:row>
     <x:row r="114" spans="1:8">
       <x:c r="B114" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C114" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D114" s="3" t="s">
-        <x:v>184</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E114" s="4">
         <x:v>34082</x:v>
@@ -5725,13 +5484,13 @@
     </x:row>
     <x:row r="115" spans="1:8">
       <x:c r="B115" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C115" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D115" s="3" t="s">
-        <x:v>185</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E115" s="4">
         <x:v>34104</x:v>
@@ -5748,13 +5507,13 @@
     </x:row>
     <x:row r="116" spans="1:8">
       <x:c r="B116" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C116" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D116" s="3" t="s">
-        <x:v>186</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E116" s="4">
         <x:v>34114</x:v>
@@ -5771,13 +5530,13 @@
     </x:row>
     <x:row r="117" spans="1:8">
       <x:c r="B117" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C117" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D117" s="3" t="s">
-        <x:v>187</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E117" s="4">
         <x:v>34122</x:v>
@@ -5794,13 +5553,13 @@
     </x:row>
     <x:row r="118" spans="1:8">
       <x:c r="B118" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C118" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D118" s="3" t="s">
-        <x:v>188</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E118" s="4">
         <x:v>34173</x:v>
@@ -5817,13 +5576,13 @@
     </x:row>
     <x:row r="119" spans="1:8">
       <x:c r="B119" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C119" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D119" s="3" t="s">
-        <x:v>189</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E119" s="4">
         <x:v>34205</x:v>
@@ -5840,13 +5599,13 @@
     </x:row>
     <x:row r="120" spans="1:8">
       <x:c r="B120" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C120" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D120" s="3" t="s">
-        <x:v>190</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E120" s="4">
         <x:v>34213</x:v>
@@ -5863,13 +5622,13 @@
     </x:row>
     <x:row r="121" spans="1:8">
       <x:c r="B121" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C121" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D121" s="3" t="s">
-        <x:v>191</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E121" s="4">
         <x:v>34216</x:v>
@@ -5886,13 +5645,13 @@
     </x:row>
     <x:row r="122" spans="1:8">
       <x:c r="B122" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C122" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D122" s="3" t="s">
-        <x:v>192</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E122" s="4">
         <x:v>34243</x:v>
@@ -5909,13 +5668,13 @@
     </x:row>
     <x:row r="123" spans="1:8">
       <x:c r="B123" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C123" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D123" s="3" t="s">
-        <x:v>193</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E123" s="4">
         <x:v>34244</x:v>
@@ -5932,13 +5691,13 @@
     </x:row>
     <x:row r="124" spans="1:8">
       <x:c r="B124" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C124" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D124" s="3" t="s">
-        <x:v>194</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E124" s="4">
         <x:v>34250</x:v>
@@ -5955,13 +5714,13 @@
     </x:row>
     <x:row r="125" spans="1:8">
       <x:c r="B125" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C125" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D125" s="3" t="s">
-        <x:v>195</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E125" s="4">
         <x:v>34261</x:v>
@@ -5978,13 +5737,13 @@
     </x:row>
     <x:row r="126" spans="1:8">
       <x:c r="B126" s="3" t="s">
-        <x:v>196</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C126" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D126" s="3" t="s">
-        <x:v>197</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E126" s="4">
         <x:v>34268</x:v>
@@ -6001,13 +5760,13 @@
     </x:row>
     <x:row r="127" spans="1:8">
       <x:c r="B127" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C127" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D127" s="3" t="s">
-        <x:v>198</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E127" s="4">
         <x:v>34274</x:v>
@@ -6024,13 +5783,13 @@
     </x:row>
     <x:row r="128" spans="1:8">
       <x:c r="B128" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C128" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D128" s="3" t="s">
-        <x:v>199</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E128" s="4">
         <x:v>34274</x:v>
@@ -6047,13 +5806,13 @@
     </x:row>
     <x:row r="129" spans="1:8">
       <x:c r="B129" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C129" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D129" s="3" t="s">
-        <x:v>200</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E129" s="4">
         <x:v>34275</x:v>
@@ -6070,13 +5829,13 @@
     </x:row>
     <x:row r="130" spans="1:8">
       <x:c r="B130" s="3" t="s">
-        <x:v>201</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C130" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D130" s="3" t="s">
-        <x:v>202</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E130" s="4">
         <x:v>34287</x:v>
@@ -6093,13 +5852,13 @@
     </x:row>
     <x:row r="131" spans="1:8">
       <x:c r="B131" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C131" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D131" s="3" t="s">
-        <x:v>203</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E131" s="4">
         <x:v>34300</x:v>
@@ -6116,13 +5875,13 @@
     </x:row>
     <x:row r="132" spans="1:8">
       <x:c r="B132" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C132" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D132" s="3" t="s">
-        <x:v>204</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E132" s="4">
         <x:v>34300</x:v>
@@ -6139,13 +5898,13 @@
     </x:row>
     <x:row r="133" spans="1:8">
       <x:c r="B133" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C133" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D133" s="3" t="s">
-        <x:v>205</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E133" s="4">
         <x:v>34304</x:v>
@@ -6162,13 +5921,13 @@
     </x:row>
     <x:row r="134" spans="1:8">
       <x:c r="B134" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C134" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D134" s="3" t="s">
-        <x:v>206</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E134" s="4">
         <x:v>34315</x:v>
@@ -6185,13 +5944,13 @@
     </x:row>
     <x:row r="135" spans="1:8">
       <x:c r="B135" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C135" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D135" s="3" t="s">
-        <x:v>207</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E135" s="4">
         <x:v>34320</x:v>
@@ -6208,13 +5967,13 @@
     </x:row>
     <x:row r="136" spans="1:8">
       <x:c r="B136" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C136" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D136" s="3" t="s">
-        <x:v>208</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E136" s="4">
         <x:v>34328</x:v>
@@ -6231,13 +5990,13 @@
     </x:row>
     <x:row r="137" spans="1:8">
       <x:c r="B137" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C137" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D137" s="3" t="s">
-        <x:v>209</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E137" s="4">
         <x:v>34335</x:v>
@@ -6254,13 +6013,13 @@
     </x:row>
     <x:row r="138" spans="1:8">
       <x:c r="B138" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C138" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D138" s="3" t="s">
-        <x:v>210</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E138" s="4">
         <x:v>34343</x:v>
@@ -6277,13 +6036,13 @@
     </x:row>
     <x:row r="139" spans="1:8">
       <x:c r="B139" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C139" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D139" s="3" t="s">
-        <x:v>211</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E139" s="4">
         <x:v>34351</x:v>
@@ -6300,13 +6059,13 @@
     </x:row>
     <x:row r="140" spans="1:8">
       <x:c r="B140" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C140" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D140" s="3" t="s">
-        <x:v>212</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E140" s="4">
         <x:v>34378</x:v>
@@ -6323,13 +6082,13 @@
     </x:row>
     <x:row r="141" spans="1:8">
       <x:c r="B141" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C141" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D141" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E141" s="4">
         <x:v>34396</x:v>
@@ -6346,13 +6105,13 @@
     </x:row>
     <x:row r="142" spans="1:8">
       <x:c r="B142" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C142" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D142" s="3" t="s">
-        <x:v>214</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E142" s="4">
         <x:v>34407</x:v>
@@ -6369,13 +6128,13 @@
     </x:row>
     <x:row r="143" spans="1:8">
       <x:c r="B143" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C143" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D143" s="3" t="s">
-        <x:v>215</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E143" s="4">
         <x:v>34418</x:v>
@@ -6392,13 +6151,13 @@
     </x:row>
     <x:row r="144" spans="1:8">
       <x:c r="B144" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C144" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D144" s="3" t="s">
-        <x:v>216</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E144" s="4">
         <x:v>34431</x:v>
@@ -6415,13 +6174,13 @@
     </x:row>
     <x:row r="145" spans="1:8">
       <x:c r="B145" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C145" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D145" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E145" s="4">
         <x:v>34440</x:v>
@@ -6438,13 +6197,13 @@
     </x:row>
     <x:row r="146" spans="1:8">
       <x:c r="B146" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C146" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D146" s="3" t="s">
-        <x:v>218</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E146" s="4">
         <x:v>34455</x:v>
@@ -6461,13 +6220,13 @@
     </x:row>
     <x:row r="147" spans="1:8">
       <x:c r="B147" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C147" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D147" s="3" t="s">
-        <x:v>219</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E147" s="4">
         <x:v>34459</x:v>
@@ -6484,13 +6243,13 @@
     </x:row>
     <x:row r="148" spans="1:8">
       <x:c r="B148" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C148" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D148" s="3" t="s">
-        <x:v>220</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E148" s="4">
         <x:v>34463</x:v>
@@ -6507,13 +6266,13 @@
     </x:row>
     <x:row r="149" spans="1:8">
       <x:c r="B149" s="3" t="s">
-        <x:v>221</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C149" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D149" s="3" t="s">
-        <x:v>222</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E149" s="4">
         <x:v>34476</x:v>
@@ -6530,13 +6289,13 @@
     </x:row>
     <x:row r="150" spans="1:8">
       <x:c r="B150" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C150" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D150" s="3" t="s">
-        <x:v>223</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E150" s="4">
         <x:v>34486</x:v>
@@ -6553,13 +6312,13 @@
     </x:row>
     <x:row r="151" spans="1:8">
       <x:c r="B151" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C151" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D151" s="3" t="s">
-        <x:v>224</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E151" s="4">
         <x:v>34489</x:v>
@@ -6576,13 +6335,13 @@
     </x:row>
     <x:row r="152" spans="1:8">
       <x:c r="B152" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C152" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D152" s="3" t="s">
-        <x:v>225</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E152" s="4">
         <x:v>34494</x:v>
@@ -6599,13 +6358,13 @@
     </x:row>
     <x:row r="153" spans="1:8">
       <x:c r="B153" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C153" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D153" s="3" t="s">
-        <x:v>226</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E153" s="4">
         <x:v>34499</x:v>
@@ -6622,13 +6381,13 @@
     </x:row>
     <x:row r="154" spans="1:8">
       <x:c r="B154" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C154" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D154" s="3" t="s">
-        <x:v>227</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E154" s="4">
         <x:v>34511</x:v>
@@ -6645,13 +6404,13 @@
     </x:row>
     <x:row r="155" spans="1:8">
       <x:c r="B155" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C155" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D155" s="3" t="s">
-        <x:v>228</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E155" s="4">
         <x:v>34516</x:v>
@@ -6668,13 +6427,13 @@
     </x:row>
     <x:row r="156" spans="1:8">
       <x:c r="B156" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C156" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D156" s="3" t="s">
-        <x:v>229</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E156" s="4">
         <x:v>34519</x:v>
@@ -6691,13 +6450,13 @@
     </x:row>
     <x:row r="157" spans="1:8">
       <x:c r="B157" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C157" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D157" s="3" t="s">
-        <x:v>230</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E157" s="4">
         <x:v>34521</x:v>
@@ -6714,13 +6473,13 @@
     </x:row>
     <x:row r="158" spans="1:8">
       <x:c r="B158" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C158" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D158" s="3" t="s">
-        <x:v>231</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E158" s="4">
         <x:v>34523</x:v>
@@ -6737,13 +6496,13 @@
     </x:row>
     <x:row r="159" spans="1:8">
       <x:c r="B159" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C159" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D159" s="3" t="s">
-        <x:v>232</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E159" s="4">
         <x:v>34525</x:v>
@@ -6760,13 +6519,13 @@
     </x:row>
     <x:row r="160" spans="1:8">
       <x:c r="B160" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C160" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D160" s="3" t="s">
-        <x:v>233</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E160" s="4">
         <x:v>34531</x:v>
@@ -6783,13 +6542,13 @@
     </x:row>
     <x:row r="161" spans="1:8">
       <x:c r="B161" s="3" t="s">
-        <x:v>234</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C161" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D161" s="3" t="s">
-        <x:v>235</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E161" s="4">
         <x:v>34537</x:v>
@@ -6806,13 +6565,13 @@
     </x:row>
     <x:row r="162" spans="1:8">
       <x:c r="B162" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C162" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D162" s="3" t="s">
-        <x:v>236</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E162" s="4">
         <x:v>34541</x:v>
@@ -6829,13 +6588,13 @@
     </x:row>
     <x:row r="163" spans="1:8">
       <x:c r="B163" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C163" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D163" s="3" t="s">
-        <x:v>237</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E163" s="4">
         <x:v>34548</x:v>
@@ -6852,13 +6611,13 @@
     </x:row>
     <x:row r="164" spans="1:8">
       <x:c r="B164" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C164" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D164" s="3" t="s">
-        <x:v>238</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E164" s="4">
         <x:v>34552</x:v>
@@ -6875,13 +6634,13 @@
     </x:row>
     <x:row r="165" spans="1:8">
       <x:c r="B165" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C165" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D165" s="3" t="s">
-        <x:v>239</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E165" s="4">
         <x:v>34556</x:v>
@@ -6898,13 +6657,13 @@
     </x:row>
     <x:row r="166" spans="1:8">
       <x:c r="B166" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C166" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D166" s="3" t="s">
-        <x:v>240</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E166" s="4">
         <x:v>34583</x:v>
@@ -6921,13 +6680,13 @@
     </x:row>
     <x:row r="167" spans="1:8">
       <x:c r="B167" s="3" t="s">
-        <x:v>162</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C167" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D167" s="3" t="s">
-        <x:v>241</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E167" s="4">
         <x:v>34585</x:v>
@@ -6944,13 +6703,13 @@
     </x:row>
     <x:row r="168" spans="1:8">
       <x:c r="B168" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C168" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D168" s="3" t="s">
-        <x:v>242</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E168" s="4">
         <x:v>34589</x:v>
@@ -6967,13 +6726,13 @@
     </x:row>
     <x:row r="169" spans="1:8">
       <x:c r="B169" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C169" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D169" s="3" t="s">
-        <x:v>243</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E169" s="4">
         <x:v>34591</x:v>
@@ -6990,13 +6749,13 @@
     </x:row>
     <x:row r="170" spans="1:8">
       <x:c r="B170" s="3" t="s">
-        <x:v>159</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C170" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D170" s="3" t="s">
-        <x:v>244</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E170" s="4">
         <x:v>34593</x:v>
@@ -7013,13 +6772,13 @@
     </x:row>
     <x:row r="171" spans="1:8">
       <x:c r="B171" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C171" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D171" s="3" t="s">
-        <x:v>245</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E171" s="4">
         <x:v>34597</x:v>
@@ -7036,13 +6795,13 @@
     </x:row>
     <x:row r="172" spans="1:8">
       <x:c r="B172" s="3" t="s">
-        <x:v>246</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C172" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D172" s="3" t="s">
-        <x:v>247</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E172" s="4">
         <x:v>34611</x:v>
@@ -7059,13 +6818,13 @@
     </x:row>
     <x:row r="173" spans="1:8">
       <x:c r="B173" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C173" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D173" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E173" s="4">
         <x:v>34613</x:v>
@@ -7082,13 +6841,13 @@
     </x:row>
     <x:row r="174" spans="1:8">
       <x:c r="B174" s="3" t="s">
-        <x:v>249</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C174" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D174" s="3" t="s">
-        <x:v>250</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E174" s="4">
         <x:v>34625</x:v>
@@ -7105,13 +6864,13 @@
     </x:row>
     <x:row r="175" spans="1:8">
       <x:c r="B175" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C175" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D175" s="3" t="s">
-        <x:v>251</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E175" s="4">
         <x:v>34628</x:v>
@@ -7128,13 +6887,13 @@
     </x:row>
     <x:row r="176" spans="1:8">
       <x:c r="B176" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C176" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D176" s="3" t="s">
-        <x:v>252</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E176" s="4">
         <x:v>34649</x:v>
@@ -7151,13 +6910,13 @@
     </x:row>
     <x:row r="177" spans="1:8">
       <x:c r="B177" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C177" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D177" s="3" t="s">
-        <x:v>253</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E177" s="4">
         <x:v>34650</x:v>
@@ -7174,13 +6933,13 @@
     </x:row>
     <x:row r="178" spans="1:8">
       <x:c r="B178" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C178" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D178" s="3" t="s">
-        <x:v>254</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E178" s="4">
         <x:v>34652</x:v>
@@ -7197,13 +6956,13 @@
     </x:row>
     <x:row r="179" spans="1:8">
       <x:c r="B179" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C179" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D179" s="3" t="s">
-        <x:v>255</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E179" s="4">
         <x:v>34654</x:v>
@@ -7220,13 +6979,13 @@
     </x:row>
     <x:row r="180" spans="1:8">
       <x:c r="B180" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C180" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D180" s="3" t="s">
-        <x:v>256</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E180" s="4">
         <x:v>34660</x:v>
@@ -7243,13 +7002,13 @@
     </x:row>
     <x:row r="181" spans="1:8">
       <x:c r="B181" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C181" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D181" s="3" t="s">
-        <x:v>257</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E181" s="4">
         <x:v>34661</x:v>
@@ -7266,13 +7025,13 @@
     </x:row>
     <x:row r="182" spans="1:8">
       <x:c r="B182" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C182" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D182" s="3" t="s">
-        <x:v>258</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="E182" s="4">
         <x:v>34662</x:v>
@@ -7289,13 +7048,13 @@
     </x:row>
     <x:row r="183" spans="1:8">
       <x:c r="B183" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C183" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D183" s="3" t="s">
-        <x:v>259</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E183" s="4">
         <x:v>34664</x:v>
@@ -7312,13 +7071,13 @@
     </x:row>
     <x:row r="184" spans="1:8">
       <x:c r="B184" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C184" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D184" s="3" t="s">
-        <x:v>260</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E184" s="4">
         <x:v>34677</x:v>
@@ -7335,13 +7094,13 @@
     </x:row>
     <x:row r="185" spans="1:8">
       <x:c r="B185" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C185" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D185" s="3" t="s">
-        <x:v>261</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E185" s="4">
         <x:v>34678</x:v>
@@ -7358,13 +7117,13 @@
     </x:row>
     <x:row r="186" spans="1:8">
       <x:c r="B186" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C186" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D186" s="3" t="s">
-        <x:v>262</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E186" s="4">
         <x:v>34679</x:v>
@@ -7381,13 +7140,13 @@
     </x:row>
     <x:row r="187" spans="1:8">
       <x:c r="B187" s="3" t="s">
-        <x:v>249</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C187" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D187" s="3" t="s">
-        <x:v>263</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E187" s="4">
         <x:v>34682</x:v>
@@ -7404,13 +7163,13 @@
     </x:row>
     <x:row r="188" spans="1:8">
       <x:c r="B188" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C188" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D188" s="3" t="s">
-        <x:v>264</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E188" s="4">
         <x:v>34683</x:v>
@@ -7427,13 +7186,13 @@
     </x:row>
     <x:row r="189" spans="1:8">
       <x:c r="B189" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C189" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D189" s="3" t="s">
-        <x:v>265</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E189" s="4">
         <x:v>34684</x:v>
@@ -7450,13 +7209,13 @@
     </x:row>
     <x:row r="190" spans="1:8">
       <x:c r="B190" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C190" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D190" s="3" t="s">
-        <x:v>266</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E190" s="4">
         <x:v>34688</x:v>
@@ -7473,13 +7232,13 @@
     </x:row>
     <x:row r="191" spans="1:8">
       <x:c r="B191" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C191" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D191" s="3" t="s">
-        <x:v>267</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E191" s="4">
         <x:v>34690</x:v>
@@ -7496,13 +7255,13 @@
     </x:row>
     <x:row r="192" spans="1:8">
       <x:c r="B192" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C192" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D192" s="3" t="s">
-        <x:v>268</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="E192" s="4">
         <x:v>34691</x:v>
@@ -7519,13 +7278,13 @@
     </x:row>
     <x:row r="193" spans="1:8">
       <x:c r="B193" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C193" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D193" s="3" t="s">
-        <x:v>269</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E193" s="4">
         <x:v>34694</x:v>
@@ -7542,13 +7301,13 @@
     </x:row>
     <x:row r="194" spans="1:8">
       <x:c r="B194" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C194" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D194" s="3" t="s">
-        <x:v>270</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E194" s="4">
         <x:v>34698</x:v>
@@ -7565,13 +7324,13 @@
     </x:row>
     <x:row r="195" spans="1:8">
       <x:c r="B195" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C195" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D195" s="3" t="s">
-        <x:v>271</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E195" s="4">
         <x:v>34700</x:v>
@@ -7588,13 +7347,13 @@
     </x:row>
     <x:row r="196" spans="1:8">
       <x:c r="B196" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C196" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D196" s="3" t="s">
-        <x:v>272</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="E196" s="4">
         <x:v>34703</x:v>
@@ -7611,13 +7370,13 @@
     </x:row>
     <x:row r="197" spans="1:8">
       <x:c r="B197" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C197" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D197" s="3" t="s">
-        <x:v>273</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E197" s="4">
         <x:v>34705</x:v>
@@ -7634,13 +7393,13 @@
     </x:row>
     <x:row r="198" spans="1:8">
       <x:c r="B198" s="3" t="s">
-        <x:v>274</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C198" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D198" s="3" t="s">
-        <x:v>275</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E198" s="4">
         <x:v>34707</x:v>
@@ -7657,13 +7416,13 @@
     </x:row>
     <x:row r="199" spans="1:8">
       <x:c r="B199" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C199" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D199" s="3" t="s">
-        <x:v>276</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E199" s="4">
         <x:v>34708</x:v>
@@ -7680,13 +7439,13 @@
     </x:row>
     <x:row r="200" spans="1:8">
       <x:c r="B200" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C200" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D200" s="3" t="s">
-        <x:v>277</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E200" s="4">
         <x:v>34709</x:v>
@@ -7703,13 +7462,13 @@
     </x:row>
     <x:row r="201" spans="1:8">
       <x:c r="B201" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C201" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D201" s="3" t="s">
-        <x:v>278</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E201" s="4">
         <x:v>34715</x:v>
@@ -7726,13 +7485,13 @@
     </x:row>
     <x:row r="202" spans="1:8">
       <x:c r="B202" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C202" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D202" s="3" t="s">
-        <x:v>279</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E202" s="4">
         <x:v>34719</x:v>
@@ -7749,13 +7508,13 @@
     </x:row>
     <x:row r="203" spans="1:8">
       <x:c r="B203" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C203" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D203" s="3" t="s">
-        <x:v>280</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E203" s="4">
         <x:v>34721</x:v>
@@ -7772,13 +7531,13 @@
     </x:row>
     <x:row r="204" spans="1:8">
       <x:c r="B204" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C204" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D204" s="3" t="s">
-        <x:v>281</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="E204" s="4">
         <x:v>34725</x:v>
@@ -7795,13 +7554,13 @@
     </x:row>
     <x:row r="205" spans="1:8">
       <x:c r="B205" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C205" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D205" s="3" t="s">
-        <x:v>282</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="E205" s="4">
         <x:v>34731</x:v>
@@ -7818,13 +7577,13 @@
     </x:row>
     <x:row r="206" spans="1:8">
       <x:c r="B206" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C206" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D206" s="3" t="s">
-        <x:v>283</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="E206" s="4">
         <x:v>34732</x:v>
@@ -7840,15 +7599,14 @@
       </x:c>
     </x:row>
     <x:row r="207" spans="1:8">
-      <x:c r="A207" s="21" t="s"/>
       <x:c r="B207" s="3" t="s">
-        <x:v>249</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C207" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D207" s="3" t="s">
-        <x:v>284</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E207" s="4">
         <x:v>34735</x:v>
@@ -7864,15 +7622,14 @@
       </x:c>
     </x:row>
     <x:row r="208" spans="1:8">
-      <x:c r="A208" s="21" t="s"/>
       <x:c r="B208" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C208" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D208" s="3" t="s">
-        <x:v>285</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E208" s="4" t="s"/>
       <x:c r="F208" s="5" t="n">
@@ -7886,14 +7643,13 @@
       </x:c>
     </x:row>
     <x:row r="209" spans="1:8">
-      <x:c r="A209" s="21" t="s"/>
-      <x:c r="B209" s="28" t="s"/>
-      <x:c r="C209" s="29" t="s"/>
+      <x:c r="B209" s="7" t="s"/>
+      <x:c r="C209" s="8" t="s"/>
       <x:c r="D209" s="2" t="s"/>
-      <x:c r="E209" s="28" t="s"/>
-      <x:c r="F209" s="30" t="s"/>
-      <x:c r="G209" s="30" t="s"/>
-      <x:c r="H209" s="30" t="s"/>
+      <x:c r="E209" s="7" t="s"/>
+      <x:c r="F209" s="9" t="s"/>
+      <x:c r="G209" s="9" t="s"/>
+      <x:c r="H209" s="9" t="s"/>
     </x:row>
   </x:sheetData>
   <x:conditionalFormatting sqref="C4:C208">
@@ -7932,7 +7688,7 @@
 <file path=pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1">
   <x:cacheSource type="worksheet">
-    <x:worksheetSource name="Лист1!B3:H208"/>
+    <x:worksheetSource ref="B3:H208" sheet="Лист1"/>
   </x:cacheSource>
   <x:cacheFields>
     <x:cacheField name="Company">
@@ -8214,7 +7970,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Ship date">
-      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1988-01-21T00:00:00" maxDate="1995-02-05T00:00:00" count="191"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1988-01-21T00:00:00" maxDate="1995-02-05T00:00:00" count="191"/>
     </x:cacheField>
     <x:cacheField name="Items total">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="54" maxValue="158922.65" count="205"/>

--- a/tests/Gauges/tPivot5_Static.xlsx
+++ b/tests/Gauges/tPivot5_Static.xlsx
@@ -12,8 +12,8 @@
     <x:sheet name="PivotTable" sheetId="7" r:id="rId7"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="Orders">Лист1!$A$4:$H$209</x:definedName>
-    <x:definedName name="Orders_tpl">Лист1!$A$4:$H$209</x:definedName>
+    <x:definedName name="Orders_tpl" localSheetId="1">Лист1!$A$4:$H$208</x:definedName>
+    <x:definedName name="Orders">Лист1!$A$4:$H$208</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
   <x:pivotCaches>
@@ -948,7 +948,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
+  <x:cellStyleXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -965,12 +965,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -1056,11 +1050,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1691640" cy="609600"/>
+    <xdr:ext cx="1695450" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Рисунок 2"/>
@@ -1077,7 +1071,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1691640" cy="609600"/>
+          <a:ext cx="1695450" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -1088,11 +1082,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1">
+<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" refreshedBy=" " refreshedDate="43059.635203472222" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
   <x:cacheSource type="worksheet">
     <x:worksheetSource ref="B3:H208" sheet="Лист1"/>
   </x:cacheSource>
-  <x:cacheFields>
+  <x:cacheFields count="7">
     <x:cacheField name="Company">
       <x:sharedItems count="54">
         <x:s v="Sight Diver"/>
@@ -1399,8 +1393,8 @@
 <x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" showDrill="0" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <x:location ref="B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="7">
-    <x:pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <x:items count="54">
+    <x:pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0">
+      <x:items count="55">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
@@ -1455,10 +1449,11 @@
         <x:item x="51"/>
         <x:item x="52"/>
         <x:item x="53"/>
+        <x:item t="default"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Payment method" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <x:items count="7">
+    <x:pivotField name="Payment method" axis="axisRow" compact="0" outline="0" showAll="0">
+      <x:items count="8">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
@@ -1466,10 +1461,11 @@
         <x:item x="4"/>
         <x:item x="5"/>
         <x:item x="6"/>
+        <x:item t="default"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="OrderNo" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <x:items count="205">
+    <x:pivotField name="OrderNo" axis="axisRow" compact="0" outline="0" showAll="0">
+      <x:items count="206">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
@@ -1675,18 +1671,32 @@
         <x:item x="202"/>
         <x:item x="203"/>
         <x:item x="204"/>
+        <x:item t="default"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Ship date" compact="0" outline="0" defaultSubtotal="0"/>
-    <x:pivotField name="Items total" dataField="1" compact="0" outline="0" defaultSubtotal="0"/>
-    <x:pivotField name="Tax rate" axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <x:items count="3">
+    <x:pivotField name="Ship date" compact="0" outline="0">
+      <x:items count="1">
+        <x:item t="default"/>
+      </x:items>
+    </x:pivotField>
+    <x:pivotField name="Items total" dataField="1" compact="0" outline="0">
+      <x:items count="1">
+        <x:item t="default"/>
+      </x:items>
+    </x:pivotField>
+    <x:pivotField name="Tax rate" axis="axisCol" compact="0" outline="0" showAll="0">
+      <x:items count="4">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
+        <x:item t="default"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Amount paid" dataField="1" compact="0" outline="0" defaultSubtotal="0"/>
+    <x:pivotField name="Amount paid" dataField="1" compact="0" outline="0">
+      <x:items count="1">
+        <x:item t="default"/>
+      </x:items>
+    </x:pivotField>
   </x:pivotFields>
   <x:rowFields count="3">
     <x:field x="0"/>
@@ -2521,8 +2531,8 @@
     </x:i>
   </x:colItems>
   <x:dataFields count="2">
-    <x:dataField name="Сумма по полю Amount paid" fld="6" subtotal="sum" showDataAs="normal" baseField="2" baseItem="0" numFmtId="0"/>
-    <x:dataField name="Сумма Items total" fld="4" subtotal="sum" showDataAs="normal" baseField="2" baseItem="0" numFmtId="0"/>
+    <x:dataField name="Сумма по полю Amount paid" fld="6" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
+    <x:dataField name="Сумма Items total" fld="4" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
   </x:dataFields>
   <x:pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
   <x:extLst>
@@ -7642,15 +7652,6 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="209" spans="1:8">
-      <x:c r="B209" s="7" t="s"/>
-      <x:c r="C209" s="8" t="s"/>
-      <x:c r="D209" s="2" t="s"/>
-      <x:c r="E209" s="7" t="s"/>
-      <x:c r="F209" s="9" t="s"/>
-      <x:c r="G209" s="9" t="s"/>
-      <x:c r="H209" s="9" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:conditionalFormatting sqref="C4:C208">
     <x:cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
@@ -7686,7 +7687,7 @@
 </file>
 
 <file path=pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1">
+<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3">
   <x:cacheSource type="worksheet">
     <x:worksheetSource ref="B3:H208" sheet="Лист1"/>
   </x:cacheSource>
